--- a/document/02_結合テスト/03_障害管理/障害管理表.xlsx
+++ b/document/02_結合テスト/03_障害管理/障害管理表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{E120A31D-20AD-4823-A40B-D288391179B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A54BBCB-1EF8-45EF-AAEF-9132E9001B2C}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{E120A31D-20AD-4823-A40B-D288391179B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E97024F8-0A2D-4A01-9DD0-A90F5011AF85}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F9FBF9AF-3DA5-4D72-8735-A62C48C08D8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9FBF9AF-3DA5-4D72-8735-A62C48C08D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>障害管理表</t>
     <rPh sb="0" eb="2">
@@ -256,6 +256,154 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空ファイルを選択した時、異常終了せずエビデンス（Excelファイル）が作成されてしまう。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブ区切りになっているCSVファイルを選択した時、異常終了せずエビデンス（Excelファイル）が作成されてしまう。</t>
+    <rPh sb="2" eb="4">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カンマ区切りになっているTSVファイルを選択した時、異常終了せずエビデンス（Excelファイル）が作成されてしまう。</t>
+    <rPh sb="3" eb="5">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力ファイルが重複していた場合、異常終了せず上書き保存してしまう。</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVファイルもしくはTSVファイル以外のファイルを選択した時、正常終了してしまう。</t>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -344,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,8 +532,11 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -715,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6769E691-840C-4A7F-9353-57512ADA86E0}">
   <dimension ref="S12:AM15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -830,9 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6FDBB6-2AF1-449C-80DA-B6A7CA168EDC}">
   <dimension ref="A1:CA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -872,14 +1021,14 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
@@ -983,14 +1132,14 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="11" t="s">
         <v>11</v>
       </c>
@@ -998,25 +1147,25 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
       <c r="AR3" s="11" t="s">
         <v>10</v>
       </c>
@@ -1068,58 +1217,76 @@
       <c r="BZ3" s="11"/>
       <c r="CA3" s="11"/>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:79" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>44127</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="9"/>
+      <c r="P4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="9"/>
+      <c r="AA4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
+      <c r="AV4" s="13">
+        <v>44131</v>
+      </c>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9"/>
       <c r="BB4" s="9"/>
@@ -1149,58 +1316,76 @@
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:79" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44127</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="9"/>
+      <c r="P5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="9"/>
+      <c r="AA5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
+      <c r="AV5" s="13">
+        <v>44131</v>
+      </c>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
       <c r="BB5" s="9"/>
@@ -1231,57 +1416,75 @@
       <c r="CA5" s="9"/>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>44127</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="9"/>
+      <c r="P6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="9"/>
+      <c r="AA6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
+      <c r="AV6" s="13">
+        <v>44131</v>
+      </c>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
       <c r="BB6" s="9"/>
@@ -1311,58 +1514,76 @@
       <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:79" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>44127</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="9"/>
+      <c r="P7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="9"/>
+      <c r="AA7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
+      <c r="AV7" s="13">
+        <v>44132</v>
+      </c>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="9"/>
       <c r="BB7" s="9"/>
@@ -1392,58 +1613,76 @@
       <c r="BZ7" s="9"/>
       <c r="CA7" s="9"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:79" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>44127</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="9"/>
+      <c r="P8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="9"/>
+      <c r="AA8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
       <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
+      <c r="AV8" s="13">
+        <v>44132</v>
+      </c>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="9"/>
       <c r="BB8" s="9"/>
@@ -1489,34 +1728,34 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
@@ -1570,34 +1809,34 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -1651,34 +1890,34 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
@@ -1732,34 +1971,34 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
@@ -1813,34 +2052,34 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
@@ -1894,34 +2133,34 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -1975,34 +2214,34 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
@@ -2056,34 +2295,34 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
@@ -2137,34 +2376,34 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
@@ -2218,34 +2457,34 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
@@ -2299,34 +2538,34 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
@@ -2380,34 +2619,34 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
@@ -2461,34 +2700,34 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="9"/>
       <c r="AT21" s="9"/>
@@ -2542,34 +2781,34 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
@@ -2623,34 +2862,34 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
@@ -2704,34 +2943,34 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
       <c r="AT24" s="9"/>
@@ -2785,34 +3024,34 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
@@ -2866,34 +3105,34 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
       <c r="AT26" s="9"/>
@@ -2947,34 +3186,34 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9"/>
@@ -3381,5 +3620,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/02_結合テスト/03_障害管理/障害管理表.xlsx
+++ b/document/02_結合テスト/03_障害管理/障害管理表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Desktop\研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:BW27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ13" sqref="AZ13:BC14"/>
+      <selection activeCell="BD13" sqref="BD13:BG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="13.5"/>
